--- a/Team_1_Work_Progress.xlsx
+++ b/Team_1_Work_Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Days</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>Day 4 (17/08/2018)</t>
+  </si>
+  <si>
+    <t>Final Front End Merchant page and back end for profile.</t>
+  </si>
+  <si>
+    <t>Final Front End Login page and back end.</t>
+  </si>
+  <si>
+    <t>Back end pending.</t>
+  </si>
+  <si>
+    <t>Back end for edit profile pending.</t>
+  </si>
+  <si>
+    <t>Final Front End Admin page and back end.</t>
+  </si>
+  <si>
+    <t>Order page added &amp; back end for edit profile.</t>
+  </si>
+  <si>
+    <t>Back end for profile pending.</t>
   </si>
 </sst>
 </file>
@@ -486,8 +507,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,49 +584,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -852,7 +891,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:M17"/>
+      <selection activeCell="I14" sqref="I14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,33 +901,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
@@ -905,11 +944,11 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
@@ -926,11 +965,11 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
@@ -947,287 +986,315 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="25"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="23" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="26"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="23" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="26"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="24" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="27"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="25"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="23" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="26"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="23" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="26"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="27"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="25"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="26"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="23" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="26"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="24" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="27"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="A14:B17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:M8"/>
@@ -1244,32 +1311,20 @@
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:B5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
